--- a/implementasi/implementasi coding.xlsx
+++ b/implementasi/implementasi coding.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="prepro" sheetId="1" r:id="rId1"/>
     <sheet name="tw" sheetId="2" r:id="rId2"/>
+    <sheet name="bm25" sheetId="3" r:id="rId3"/>
+    <sheet name="pagerank" sheetId="4" r:id="rId4"/>
+    <sheet name="graf" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="132">
   <si>
     <t>def get_clean_corpus(corpus, stopwords):</t>
   </si>
@@ -181,19 +184,265 @@
   </si>
   <si>
     <t xml:space="preserve">    return terms_frequency, df_idf </t>
+  </si>
+  <si>
+    <t>def calculate_bm25(self, raw_frequency, idf, doc, slen_ave):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        k1 = 1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        b = 0.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        total_bm25 = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for query in self.tokens:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            tf = raw_frequency.at[str(query),str(doc.id)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            idff = idf.at[str(query),'idf_term']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            temp = idff * ((k1+1) * tf) / (k1*( (1-b) + (b *(doc.sentence_len/slen_ave)) ) + tf)            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            total_bm25 += temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.list_bm25[doc.id] = total_bm25</t>
+  </si>
+  <si>
+    <t>def calculate_new_pagerank(self, doc):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        d=0.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        sum_InVi = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for item in doc:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if self.id is not item.id:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Wji = self.list_bm25[item.id]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                total_Wjk = sum(item.list_bm25.values())</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                sum_InVi += Wji/total_Wjk*item.pagerank_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.pagerank_score_new = (1-d)+(d*sum_InVi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Graph:    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def __init__(self, result_doc, raw_frequency, idf):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.raw_frequency = raw_frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.idf = idf.drop(columns=['df_term'])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.result_doc = result_doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.total_doc = len(result_doc['dokumen'])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.slen_ave = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.summarize = []</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.doc = []</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.outlier = []</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for index, item in self.result_doc.iterrows():</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            self.doc.append(Sentence((index+1), item['dokumen'], item['clean_corpus'], item['terms'])) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #calculate len average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        temp_len_doc = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for item in self.doc:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            temp_len_doc += item.sentence_len</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.slen_ave = temp_len_doc/len(self.doc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #calculate bm25 for each object sentence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            for item2 in self.doc:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                if item.id is not item2.id:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    item.calculate_bm25(raw_frequency= self.raw_frequency, idf=self.idf, doc=item2, slen_ave=self.slen_ave)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ##CHECKING IF BM25 SCORE IS 0 (OUTLIER SENTENCE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for index, item in enumerate(self.doc):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if sum(item.list_bm25.values()) &lt;= 0:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                self.outlier.append(self.doc.pop(index))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #calculate pagerank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for i in range(100):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            for item in self.doc:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                item.calculate_new_pagerank(self.doc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            #update pagerank score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                item.pagerank_score = item.pagerank_score_new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #getting the summarize        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        sorted_doc = sorted(self.doc, key=lambda x: x.pagerank_score, reverse=True)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        top_pagerank = []</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for item in range(math.ceil(self.total_doc*0.30)):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            top_pagerank.append(sorted_doc[item])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        sorted_sum = sorted(top_pagerank, key=lambda x: x.id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        temp_summarize = [item.full_sentence for item in sorted_sum]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.summarize = temp_summarize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        print(self.summarize)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>import pandas as pd</t>
+  </si>
+  <si>
+    <t>import re</t>
+  </si>
+  <si>
+    <t>import math</t>
+  </si>
+  <si>
+    <t>from nltk.tokenize import sent_tokenize</t>
+  </si>
+  <si>
+    <t>from nltk.tokenize import word_tokenize</t>
+  </si>
+  <si>
+    <t># import StemmerFactory class</t>
+  </si>
+  <si>
+    <t>from Sastrawi.Stemmer.StemmerFactory import StemmerFactory</t>
+  </si>
+  <si>
+    <t># create stemmer</t>
+  </si>
+  <si>
+    <t>factory = StemmerFactory()</t>
+  </si>
+  <si>
+    <t>stemmer = factory.create_stemmer()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    #segmentasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #deleting url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #deleting symbol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #stemming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                #delete stopwprds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                #delete number</t>
+  </si>
+  <si>
+    <t>#this function does cleaning, tokenize, remove stopwords, and stemming</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -216,8 +465,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,263 +753,723 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B32"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>46</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>47</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>48</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>49</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>51</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>52</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B17" sqref="A1:B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A5" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A19" s="2">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>15</v>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
+      <c r="A21" s="2">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A22" s="2">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>18</v>
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>16</v>
+      <c r="A24" s="2">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
+      <c r="A25" s="2">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
+      <c r="A26" s="2">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>20</v>
+      <c r="A27" s="2">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
+      <c r="A28" s="2">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>21</v>
+      <c r="A29" s="2">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A30" s="2">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>23</v>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -762,289 +1477,629 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="A1:B34"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="A1" s="2">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.42578125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B24" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B25" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B26" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B27" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B28" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B29" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="B49" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="B50" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
         <v>51</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>52</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/implementasi/implementasi coding.xlsx
+++ b/implementasi/implementasi coding.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6600" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="prepro" sheetId="1" r:id="rId1"/>
-    <sheet name="tw" sheetId="2" r:id="rId2"/>
-    <sheet name="bm25" sheetId="3" r:id="rId3"/>
-    <sheet name="pagerank" sheetId="4" r:id="rId4"/>
-    <sheet name="graf" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
+    <sheet name="class sentence" sheetId="7" r:id="rId2"/>
+    <sheet name="prepro" sheetId="1" r:id="rId3"/>
+    <sheet name="tw" sheetId="2" r:id="rId4"/>
+    <sheet name="bm25" sheetId="3" r:id="rId5"/>
+    <sheet name="pagerank" sheetId="4" r:id="rId6"/>
+    <sheet name="graf" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="160">
   <si>
     <t>def get_clean_corpus(corpus, stopwords):</t>
   </si>
@@ -246,9 +248,6 @@
     <t xml:space="preserve">class Graph:    </t>
   </si>
   <si>
-    <t xml:space="preserve">    def __init__(self, result_doc, raw_frequency, idf):</t>
-  </si>
-  <si>
     <t xml:space="preserve">        self.raw_frequency = raw_frequency</t>
   </si>
   <si>
@@ -327,9 +326,6 @@
     <t xml:space="preserve">        #calculate pagerank</t>
   </si>
   <si>
-    <t xml:space="preserve">        for i in range(100):</t>
-  </si>
-  <si>
     <t xml:space="preserve">            for item in self.doc:</t>
   </si>
   <si>
@@ -354,9 +350,6 @@
     <t xml:space="preserve">        top_pagerank = []</t>
   </si>
   <si>
-    <t xml:space="preserve">        for item in range(math.ceil(self.total_doc*0.30)):</t>
-  </si>
-  <si>
     <t xml:space="preserve">            top_pagerank.append(sorted_doc[item])</t>
   </si>
   <si>
@@ -369,9 +362,6 @@
     <t xml:space="preserve">        self.summarize = temp_summarize</t>
   </si>
   <si>
-    <t xml:space="preserve">        print(self.summarize)</t>
-  </si>
-  <si>
     <t xml:space="preserve">   </t>
   </si>
   <si>
@@ -424,6 +414,102 @@
   </si>
   <si>
     <t>#this function does cleaning, tokenize, remove stopwords, and stemming</t>
+  </si>
+  <si>
+    <t>input_document = open("bbc contoh beneran.txt", "r")</t>
+  </si>
+  <si>
+    <t>document= input_document.readline()</t>
+  </si>
+  <si>
+    <t>stopword = open("stopword_list_tala.txt", "r")</t>
+  </si>
+  <si>
+    <t>stopwords = stopword.read().split("\n")</t>
+  </si>
+  <si>
+    <t>cleaning_result = get_clean_corpus(corpus=document, stopwords=stopwords)</t>
+  </si>
+  <si>
+    <t>class Sentence:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    np.random.seed(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def __init__(self, id, full_sentence, clean_sentence, tokens):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.list_bm25 = {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.pagerank_score = random.random()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.id = id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.full_sentence = full_sentence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.clean_sentence = clean_sentence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.tokens = tokens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.sentence_len = len(clean_sentence.split())</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.pagerank_score_new = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def calculate_bm25(self, raw_frequency, idf, doc, slen_ave):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def calculate_new_pagerank(self, doc):</t>
+  </si>
+  <si>
+    <t>terms_frequency, df_idf  = get_term_weighting_score(cleaning_result=cleaning_result)</t>
+  </si>
+  <si>
+    <t>cr = [0.05, 0.10, 0.20, 0.30]</t>
+  </si>
+  <si>
+    <t>for crr in cr:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print("cr : ", crr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    percobaan = Graph(result_doc=cleaning_result, raw_frequency=terms_frequency, idf=df_idf, cr=crr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for ringkasan in percobaan.summarize:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        print(ringkasan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def __init__(self, result_doc, raw_frequency, idf, cr):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.compression_rate = cr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #making object sentence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        list_pgrk = [0.400827866,0.863170087,0.389187762,0.924094751,0.157640608,0.714980958,0.216858534,0.237221536,0.076112858,0.841401681]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for i in range(4):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for item in range(math.ceil(self.total_doc*self.compression_rate)):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.summarize = sorted_sum</t>
   </si>
 </sst>
 </file>
@@ -753,10 +839,421 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.85546875" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="A1:B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.140625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -778,7 +1275,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -786,7 +1283,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -794,7 +1291,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -807,7 +1304,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="24" x14ac:dyDescent="0.25">
@@ -815,7 +1312,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -828,7 +1325,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -836,7 +1333,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -844,7 +1341,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -857,7 +1354,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -881,7 +1378,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -953,7 +1450,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="36" x14ac:dyDescent="0.25">
@@ -977,7 +1474,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="36" x14ac:dyDescent="0.25">
@@ -1001,7 +1498,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="24" x14ac:dyDescent="0.25">
@@ -1057,7 +1554,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1089,7 +1586,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1178,12 +1675,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B17" sqref="A1:B35"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1477,7 +1974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -1576,7 +2073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -1667,12 +2164,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1681,425 +2178,289 @@
     <col min="2" max="2" width="54.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
-        <v>1</v>
-      </c>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>2</v>
-      </c>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>22</v>
-      </c>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>23</v>
-      </c>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>25</v>
-      </c>
-      <c r="B25" s="2" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>26</v>
-      </c>
-      <c r="B26" s="2" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>27</v>
-      </c>
-      <c r="B27" s="2" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>28</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>29</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>30</v>
-      </c>
-      <c r="B30" s="2" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>31</v>
-      </c>
-      <c r="B31" s="2" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>32</v>
-      </c>
-      <c r="B32" s="2" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>33</v>
-      </c>
-      <c r="B33" s="2" t="s">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>34</v>
-      </c>
-      <c r="B34" s="2" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>35</v>
-      </c>
-      <c r="B35" s="2" t="s">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>36</v>
-      </c>
-      <c r="B36" s="2" t="s">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>37</v>
-      </c>
-      <c r="B37" s="2" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>38</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>39</v>
-      </c>
-      <c r="B39" s="2" t="s">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>40</v>
-      </c>
-      <c r="B40" s="2" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>41</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>43</v>
-      </c>
-      <c r="B43" s="2" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>44</v>
-      </c>
-      <c r="B44" s="2" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>45</v>
-      </c>
-      <c r="B45" s="2" t="s">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>46</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>47</v>
-      </c>
-      <c r="B47" s="2" t="s">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>48</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>49</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>50</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>51</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>52</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/implementasi/implementasi coding.xlsx
+++ b/implementasi/implementasi coding.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6600" activeTab="6"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="157">
   <si>
     <t>def get_clean_corpus(corpus, stopwords):</t>
   </si>
@@ -497,19 +497,10 @@
     <t xml:space="preserve">        self.compression_rate = cr</t>
   </si>
   <si>
-    <t xml:space="preserve">        #making object sentence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        list_pgrk = [0.400827866,0.863170087,0.389187762,0.924094751,0.157640608,0.714980958,0.216858534,0.237221536,0.076112858,0.841401681]</t>
-  </si>
-  <si>
     <t xml:space="preserve">        for i in range(4):</t>
   </si>
   <si>
     <t xml:space="preserve">        for item in range(math.ceil(self.total_doc*self.compression_rate)):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        self.summarize = sorted_sum</t>
   </si>
 </sst>
 </file>
@@ -841,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="A1:B32"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2166,10 +2157,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:XFD59"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2178,288 +2169,421 @@
     <col min="2" max="2" width="54.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>7</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>11</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>35</v>
+      </c>
       <c r="B35" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>36</v>
+      </c>
       <c r="B36" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>37</v>
+      </c>
       <c r="B37" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>38</v>
+      </c>
       <c r="B38" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>39</v>
+      </c>
       <c r="B39" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>40</v>
+      </c>
       <c r="B40" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>41</v>
+      </c>
       <c r="B41" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>42</v>
+      </c>
       <c r="B42" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>43</v>
+      </c>
       <c r="B43" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>44</v>
+      </c>
       <c r="B44" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>45</v>
+      </c>
       <c r="B45" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>48</v>
+      </c>
       <c r="B48" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>49</v>
+      </c>
       <c r="B49" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>50</v>
+      </c>
       <c r="B50" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>51</v>
+      </c>
       <c r="B51" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>52</v>
+      </c>
       <c r="B52" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
         <v>110</v>
       </c>
     </row>

--- a/implementasi/implementasi coding.xlsx
+++ b/implementasi/implementasi coding.xlsx
@@ -9,16 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6600" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
-    <sheet name="class sentence" sheetId="7" r:id="rId2"/>
-    <sheet name="prepro" sheetId="1" r:id="rId3"/>
-    <sheet name="tw" sheetId="2" r:id="rId4"/>
-    <sheet name="bm25" sheetId="3" r:id="rId5"/>
-    <sheet name="pagerank" sheetId="4" r:id="rId6"/>
-    <sheet name="graf" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId2"/>
+    <sheet name="class sentence" sheetId="7" r:id="rId3"/>
+    <sheet name="prepro" sheetId="1" r:id="rId4"/>
+    <sheet name="tw" sheetId="2" r:id="rId5"/>
+    <sheet name="bm25" sheetId="3" r:id="rId6"/>
+    <sheet name="pagerank" sheetId="4" r:id="rId7"/>
+    <sheet name="graph" sheetId="5" r:id="rId8"/>
+    <sheet name="web scrapping" sheetId="9" r:id="rId9"/>
+    <sheet name="main sistem baru" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="188">
   <si>
     <t>def get_clean_corpus(corpus, stopwords):</t>
   </si>
@@ -501,6 +504,99 @@
   </si>
   <si>
     <t xml:space="preserve">        for item in range(math.ceil(self.total_doc*self.compression_rate)):</t>
+  </si>
+  <si>
+    <t>def get_document(url_bbcnews):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    try:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        page_news = urlopen(url_bbcnews)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    except:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return "error", "none"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    beautysoup = BeautifulSoup(page_news, 'html.parser')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    title =  beautysoup.find('h1', {"class": "story-body__h1"}).text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    text_news = beautysoup.find('div', {"class": "story-body__inner"})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    document = ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for data in text_news.findAll('p'):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        document = document + ' ' +  data.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return document, title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document2 = input("Input the url: ") </t>
+  </si>
+  <si>
+    <t>cr2 = input("Input the compression rate: ")</t>
+  </si>
+  <si>
+    <t>stopword = open("../stopword_list_tala.txt", "r")</t>
+  </si>
+  <si>
+    <t>document3, title = get_document(document2)</t>
+  </si>
+  <si>
+    <t>if document3 == "error" or title == "none":</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print("sorry, i cant access the url")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">else:      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    cleaning_result2 = get_clean_corpus(corpus=document3, stopwords=stopwords)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    terms_frequency2, df_idf2  = get_term_weighting_score(cleaning_result=cleaning_result2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    percobaan2 = Graph(result_doc=cleaning_result2, raw_frequency=terms_frequency2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          idf=df_idf2, cr=float(cr2))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print("Title:\n", title)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    summarize = ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for ringkasan in percobaan2.summarize:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        summarize += ringkasan + " "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print("Summarize:\n", summarize)</t>
+  </si>
+  <si>
+    <t>#bsoup</t>
+  </si>
+  <si>
+    <t>from urllib.request import urlopen</t>
+  </si>
+  <si>
+    <t>from bs4 import BeautifulSoup</t>
   </si>
 </sst>
 </file>
@@ -832,7 +928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -964,7 +1060,212 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
@@ -1239,7 +1540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B52"/>
   <sheetViews>
@@ -1666,7 +1967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
@@ -1965,7 +2266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -2064,12 +2365,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B9"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2155,12 +2456,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2590,4 +2891,178 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/implementasi/implementasi coding.xlsx
+++ b/implementasi/implementasi coding.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6600" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6600" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="graph" sheetId="5" r:id="rId8"/>
     <sheet name="web scrapping" sheetId="9" r:id="rId9"/>
     <sheet name="main sistem baru" sheetId="10" r:id="rId10"/>
+    <sheet name="main sistem lagi" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="220">
   <si>
     <t>def get_clean_corpus(corpus, stopwords):</t>
   </si>
@@ -597,6 +598,102 @@
   </si>
   <si>
     <t>from bs4 import BeautifulSoup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document2 = input("URL berita BBC Indonesia: ") </t>
+  </si>
+  <si>
+    <t>print("Jenis compression rate:\n 1. 5% \n 2. 10% \n 3. 20% \n 4. 30%")</t>
+  </si>
+  <si>
+    <t>cr2 = input("Pilih jenis compression rate: ")</t>
+  </si>
+  <si>
+    <t>if cr2 in ["1","2","3","4"] :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    stopword = open("../stopword_list_tala.txt", "r")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    stopwords = stopword.read().split("\n")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    document3, title = get_document(document2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if document3 == "error" or title == "none":</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        display(Markdown('**sorry, i cant access the url**'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else:      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cleaning_result2 = get_clean_corpus(corpus=document3, stopwords=stopwords)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        terms_frequency2, df_idf2  = get_term_weighting_score(cleaning_result=cleaning_result2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if cr2 == "1":</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            crate = 0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        elif cr2 == "2":</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            crate = 0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        elif cr2 == "3":</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            crate = 0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        elif cr2 == "4":</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            crate = 0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        percobaan2 = Graph(result_doc=cleaning_result2, raw_frequency=terms_frequency2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                              idf=df_idf2, cr=float(crate))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        display(Markdown('**Judul berita:**'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        print(title)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        summarize = ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for ringkasan in percobaan2.summarize:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            summarize += ringkasan + " "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        display(Markdown('**Hasil ringkasan:**'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        print(summarize)</t>
+  </si>
+  <si>
+    <t>else:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    display(Markdown('**sorry, wrong input**'))</t>
+  </si>
+  <si>
+    <t>from IPython.display import Markdown, display</t>
   </si>
 </sst>
 </file>
@@ -1064,9 +1161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1250,6 +1345,325 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
